--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1264350.561141732</v>
+        <v>1339880.230806537</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>97.90026742207618</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>56.3799577808333</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10.12991191512417</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>196.7218456862865</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>328.7849432929793</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>52.75158110899045</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>67.41850321461142</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>206.8577434995327</v>
+        <v>358.2976902095998</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>55.30577178795847</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>13.21975326968201</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.6635323293995</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441608035</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.3419076393841</v>
+        <v>115.5269768002174</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>40.62827478520924</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>184.3436390370246</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>169.1477376595855</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>18.99136019816752</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>94.16481274941241</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2529,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>46.25307783771938</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.90088782653663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>102.1555693376511</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>128.4311136242677</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>132.8470574485337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.84207451769508</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>76.77273444942625</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>102.0005969012857</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452468</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>49.12199829633506</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>142.1225924827132</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1648.990120852571</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1290.724422245821</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>904.9361696475764</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>493.9502648579689</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>480.0268607965598</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>152.8321408325626</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2585.170949244844</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.536282216906</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2112.774496854998</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.711609511427</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1781.711609511427</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.245851250347</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.106519274536</v>
+        <v>2035.589960916693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1374.814428194113</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1005.851911253702</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1005.851911253702</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1005.851911253702</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>660.0294860098572</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>660.0294860098572</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1958.288858935031</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4844,10 +4846,10 @@
         <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>672.2645682590014</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>444.9563809276031</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>444.9563809276031</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="V10" t="n">
-        <v>190.2718927217162</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="W10" t="n">
-        <v>190.2718927217162</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>566.6290395096265</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>566.6290395096265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138946</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D13" t="n">
-        <v>675.0071030383442</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831245</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X16" t="n">
-        <v>1387.841167119728</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,16 +5500,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5527,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5701,22 +5703,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1201.635471122733</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>946.9509829168464</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>657.5338128798858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X19" t="n">
-        <v>429.5442619818684</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>715.2736218676861</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5737,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>822.6075462588844</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C22" t="n">
-        <v>653.6713633309776</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.048590232654</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y22" t="n">
-        <v>1004.256011089124</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5992,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4503.139178847509</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C25" t="n">
-        <v>4334.202995919602</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D25" t="n">
-        <v>4184.086356507267</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E25" t="n">
-        <v>4036.173262924874</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4503.139178847509</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4503.139178847509</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>4503.139178847509</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>4503.139178847509</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>4503.139178847509</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y25" t="n">
-        <v>4503.139178847509</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>3484.747546292012</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>993.2877828087275</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E28" t="n">
         <v>674.2349604684848</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1395.728826782497</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1395.728826782497</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1395.728826782497</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>1395.728826782497</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.787631771461</v>
+        <v>1395.728826782497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.787631771461</v>
+        <v>1174.936247638967</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3721.107993746784</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="C31" t="n">
-        <v>3721.107993746784</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D31" t="n">
-        <v>3721.107993746784</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E31" t="n">
-        <v>3721.107993746784</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746784</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1369.187872957632</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1369.187872957632</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>1080.05923417119</v>
       </c>
       <c r="V31" t="n">
-        <v>3902.756458577024</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="W31" t="n">
-        <v>3902.756458577024</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="X31" t="n">
-        <v>3902.756458577024</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="Y31" t="n">
-        <v>3902.756458577024</v>
+        <v>825.3747459653033</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,40 +6697,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6740,10 +6742,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6838,22 +6840,22 @@
         <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6886,10 +6888,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="V34" t="n">
         <v>1336.117678709276</v>
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,49 +6922,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6980,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2722.685770247095</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2969.450898153559</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M36" t="n">
-        <v>3276.77103143352</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>4081.182609697671</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>4360.722674916368</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>3855.296940664495</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>3855.296940664495</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>3855.296940664495</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>3855.296940664495</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>3855.296940664495</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>3687.121618984315</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>3536.703610532259</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U37" t="n">
-        <v>4549.85945949167</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V37" t="n">
-        <v>4295.174971285784</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="W37" t="n">
-        <v>4005.757801248823</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="X37" t="n">
-        <v>3777.768250350806</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="Y37" t="n">
-        <v>3556.975671207276</v>
+        <v>4036.945405494735</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
         <v>1406.737288300438</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1395.885364597008</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1395.885364597008</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7430,31 +7432,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110089</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3975.739489936619</v>
+        <v>3686.322319899659</v>
       </c>
       <c r="C43" t="n">
-        <v>3806.803307008712</v>
+        <v>3517.386136971752</v>
       </c>
       <c r="D43" t="n">
-        <v>3656.686667596376</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E43" t="n">
-        <v>3508.773574013983</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V43" t="n">
-        <v>4606.170084808406</v>
+        <v>4606.170084808407</v>
       </c>
       <c r="W43" t="n">
-        <v>4606.170084808406</v>
+        <v>4316.752914771446</v>
       </c>
       <c r="X43" t="n">
-        <v>4378.180533910388</v>
+        <v>4088.763363873429</v>
       </c>
       <c r="Y43" t="n">
-        <v>4157.387954766858</v>
+        <v>3867.970784729899</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,7 +7663,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899127</v>
@@ -7673,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>872.6898113736385</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>703.7536284457316</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>703.7536284457316</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>555.8405348633385</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>408.9505873654281</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>240.7752656852487</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
   </sheetData>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302167</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863237</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814523</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524669889</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>444.4889386861659</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11379,22 +11381,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>34.95194068881287</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024084</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.2427457127107</v>
+        <v>103.0576765518774</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>139.2037053967281</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>101.8937133615527</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>52.39982339880376</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.7182951908696</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>16.25443271485959</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>175.2944832206699</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.9310923554007</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>119.3919917207381</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>69.48969635933551</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>119.2905858752943</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25126,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>60.37695512824945</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>90.9670373936882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.98990566424222</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>33.64651101484573</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>119.5469641571036</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>90.96703739368768</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>96.29904972659619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.791235884822925</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.418698365</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="J2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="K2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773395</v>
@@ -26433,13 +26435,13 @@
         <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="J4" t="n">
         <v>36432.48351773395</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773395</v>
@@ -26448,16 +26450,16 @@
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631189</v>
+        <v>-384076.6264631191</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514256</v>
+        <v>205891.2527514255</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514256</v>
+        <v>205891.2527514254</v>
       </c>
       <c r="E6" t="n">
-        <v>-203896.4272449815</v>
+        <v>-203896.4272449812</v>
       </c>
       <c r="F6" t="n">
         <v>321263.6092319145</v>
       </c>
       <c r="G6" t="n">
-        <v>321263.6092319145</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="H6" t="n">
         <v>321263.6092319146</v>
       </c>
       <c r="I6" t="n">
-        <v>321263.6092319146</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="J6" t="n">
         <v>144840.3900393216</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319149</v>
+        <v>321263.6092319146</v>
       </c>
       <c r="L6" t="n">
+        <v>321263.6092319147</v>
+      </c>
+      <c r="M6" t="n">
+        <v>186462.5939980776</v>
+      </c>
+      <c r="N6" t="n">
         <v>321263.6092319146</v>
       </c>
-      <c r="M6" t="n">
-        <v>186462.5939980774</v>
-      </c>
-      <c r="N6" t="n">
-        <v>321263.6092319145</v>
-      </c>
       <c r="O6" t="n">
-        <v>321263.6092319149</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="P6" t="n">
-        <v>321263.6092319145</v>
+        <v>321263.6092319146</v>
       </c>
     </row>
   </sheetData>
@@ -26738,25 +26740,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>54.03104882278507</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>118.0357550281382</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>157.1798903439268</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>89.80115265030452</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>53.14542677928245</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>354.124464632721</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.59587156758288</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>144.7270357354075</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>158.4151482714748</v>
+        <v>6.9752015614078</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.8397671620604</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>273.0621209722957</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709608</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178483</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341696</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
@@ -36692,7 +36694,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37385,16 +37387,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346381</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366322</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37789,7 +37791,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38099,22 +38101,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1339880.230806537</v>
+        <v>1332863.215914826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>97.90026742207618</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.12991191512417</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>184.7297159062661</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>52.75158110899045</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>87.81575107239195</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>67.41850321461142</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>358.2976902095998</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.332975795529264</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>13.21975326968201</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>113.6635323293995</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.62827478520924</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.562624396425592</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>169.1477376595855</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>94.16481274941241</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>102.1555693376511</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>128.4311136242677</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>24.32276211751099</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>161.1706059301398</v>
+        <v>215.0546805228902</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>76.77273444942625</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,10 +3483,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>107.5009259672061</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>102.0005969012857</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452468</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.1225924827132</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.88171928086662</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.990120852571</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1648.990120852571</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1290.724422245821</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>904.9361696475764</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>493.9502648579689</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>480.0268607965598</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>152.8321408325626</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2035.589960916693</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>550.7989714776633</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>403.9090239797529</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1374.814428194113</v>
+        <v>1666.64813361638</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.851911253702</v>
+        <v>1297.685616675969</v>
       </c>
       <c r="D5" t="n">
-        <v>1005.851911253702</v>
+        <v>939.4199180692183</v>
       </c>
       <c r="E5" t="n">
-        <v>1005.851911253702</v>
+        <v>553.631665470974</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>142.6457606813664</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.414268258235</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>660.0294860098572</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>660.0294860098572</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673951</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>566.6290395096265</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>566.6290395096265</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>416.5124000972908</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>566.6290395096265</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>566.6290395096265</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>566.6290395096265</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>566.6290395096265</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>566.6290395096265</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>378.1030765138946</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>675.007103038344</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.007103038344</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845919</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831245</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201014</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5676,13 +5676,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>936.0662010112162</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>715.2736218676861</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>102.8359039819279</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>102.8359039819279</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>102.8359039819279</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>102.8359039819279</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T22" t="n">
-        <v>4379.003158825422</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.003158825422</v>
+        <v>874.9271131227927</v>
       </c>
       <c r="V22" t="n">
-        <v>4379.003158825422</v>
+        <v>620.2426249169058</v>
       </c>
       <c r="W22" t="n">
-        <v>4089.585988788462</v>
+        <v>330.8254548799452</v>
       </c>
       <c r="X22" t="n">
-        <v>3861.596437890445</v>
+        <v>102.8359039819279</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746915</v>
+        <v>102.8359039819279</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6262,13 +6262,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>993.2877828087275</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1395.728826782497</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1395.728826782497</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1395.728826782497</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1395.728826782497</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1395.728826782497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1174.936247638967</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>825.3747459653033</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3747459653033</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1369.187872957632</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1369.187872957632</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1080.05923417119</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>825.3747459653033</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W31" t="n">
-        <v>825.3747459653033</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X31" t="n">
-        <v>825.3747459653033</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y31" t="n">
-        <v>825.3747459653033</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1336.117678709276</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U34" t="n">
-        <v>1336.117678709276</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3855.296940664495</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>3855.296940664495</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>3855.296940664495</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>3855.296940664495</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>3855.296940664495</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>3687.121618984315</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>3536.703610532259</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491671</v>
+        <v>1323.168986627976</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1099.383571417482</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>810.2549326310402</v>
       </c>
       <c r="V37" t="n">
-        <v>4036.945405494735</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W37" t="n">
-        <v>4036.945405494735</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X37" t="n">
-        <v>4036.945405494735</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y37" t="n">
-        <v>4036.945405494735</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>672.7698012891904</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632138</v>
+        <v>503.8336183612835</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>353.7169789489477</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>205.8038853665546</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>205.8038853665546</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1395.885364597008</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1395.885364597008</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1141.200876391121</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>1141.200876391121</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X40" t="n">
-        <v>1141.200876391121</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.200876391121</v>
+        <v>854.4182661194301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7399,22 +7399,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3686.322319899659</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>3517.386136971752</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014293</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014293</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V43" t="n">
-        <v>4606.170084808407</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W43" t="n">
-        <v>4316.752914771446</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X43" t="n">
-        <v>4088.763363873429</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y43" t="n">
-        <v>3867.970784729899</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.6898113736385</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C46" t="n">
-        <v>703.7536284457316</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>703.7536284457316</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>555.8405348633385</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>408.9505873654281</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>240.7752656852487</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>1167.48286482109</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y46" t="n">
-        <v>1054.338276203878</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>91.23759968302167</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863237</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298108</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>444.4889386861659</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>360.5026862907255</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>34.95194068881287</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.2037053967281</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>139.8584236265056</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>52.39982339880376</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>16.25443271485959</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>119.3919917207381</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>69.48969635933551</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>227.814881206317</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,7 +25128,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>60.37695512824945</v>
+        <v>6.492880535499097</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>33.64651101484573</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>23.93099889297633</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>58.99264249617151</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>119.5469641571036</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368768</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>6.791235884822925</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>210.2559240429614</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="I2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="K2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="I2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="L2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
@@ -26355,7 +26355,7 @@
         <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
@@ -26447,19 +26447,19 @@
         <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="N4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631191</v>
+        <v>-384076.6264631188</v>
       </c>
       <c r="C6" t="n">
+        <v>205891.2527514256</v>
+      </c>
+      <c r="D6" t="n">
         <v>205891.2527514255</v>
       </c>
-      <c r="D6" t="n">
-        <v>205891.2527514254</v>
-      </c>
       <c r="E6" t="n">
-        <v>-203896.4272449812</v>
+        <v>-204871.0185047033</v>
       </c>
       <c r="F6" t="n">
-        <v>321263.6092319145</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="G6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
       <c r="H6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="I6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721932</v>
       </c>
       <c r="J6" t="n">
-        <v>144840.3900393216</v>
+        <v>143865.7987796004</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721932</v>
       </c>
       <c r="L6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
       <c r="M6" t="n">
-        <v>186462.5939980776</v>
+        <v>185488.0027383559</v>
       </c>
       <c r="N6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721932</v>
       </c>
       <c r="O6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721929</v>
       </c>
       <c r="P6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721931</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>54.03104882278507</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1798903439268</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>101.7932824303249</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>354.124464632721</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>325.968418948403</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>144.7270357354075</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.9752015614078</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>173.0827370134423</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>273.0621209722957</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>241.8130382709608</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296106</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178483</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,13 +36685,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>754.9133157366322</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>609.7603912467498</v>
+        <v>336.4270607962786</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332863.215914826</v>
+        <v>1337802.478763858</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>390.7529822392023</v>
+        <v>245.1595743446622</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>81.56332942408272</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>184.7297159062661</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>87.81575107239195</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>181.7508773607589</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.332975795529264</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>133.9612206606977</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5.562624396425592</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002185</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>24.32276211751099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>215.0546805228902</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>197.6165621654129</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.9898110906269</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>107.5009259672061</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>170.5809693952292</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>258.2932742585202</v>
       </c>
       <c r="V46" t="n">
-        <v>41.88171928086662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>712.564820291449</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>301.5789155018414</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1666.64813361638</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>1297.685616675969</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="D5" t="n">
-        <v>939.4199180692183</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="E5" t="n">
-        <v>553.631665470974</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="F5" t="n">
-        <v>142.6457606813664</v>
+        <v>655.493534731025</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>237.5297266292118</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="Y5" t="n">
-        <v>2053.247973680502</v>
+        <v>1822.041796525166</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2695.802650820718</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2695.802650820718</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>2695.802650820718</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>79.51460345355875</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1271.749344574921</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1017.064856369034</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905256</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5290,34 +5290,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300437</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5506,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,25 +5527,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
         <v>1158.436939387592</v>
@@ -5715,10 +5715,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5743,37 +5743,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.8359039819279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>102.8359039819279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>102.8359039819279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>102.8359039819279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5910,52 +5910,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227927</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169058</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>330.8254548799452</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>102.8359039819279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.8359039819279</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,16 +6165,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6271,7 +6271,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6411,7 +6411,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>761.5137598931742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>472.0965898562135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1281.689320534781</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1281.689320534781</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1281.689320534781</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>1281.689320534781</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>1281.689320534781</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6961,13 +6961,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1323.168986627976</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1099.383571417482</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>810.2549326310402</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>555.5704444251534</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>266.1532743881928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,55 +7156,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>672.7698012891904</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>503.8336183612835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>353.7169789489477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>205.8038853665546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>205.8038853665546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.21084526296</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.21084526296</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>1075.21084526296</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>854.4182661194301</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7402,34 +7402,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1326.612261067772</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1037.48362228133</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>782.7991340754431</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>493.3819640384826</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>265.3924131404652</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1238.013973327074</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.48286482109</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W46" t="n">
-        <v>878.0656947841297</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X46" t="n">
-        <v>650.0761438861124</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y46" t="n">
-        <v>429.2835647425823</v>
+        <v>245.130185042679</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>180.0237016735861</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.409182577676</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>91.74843472833948</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641935</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520993</v>
       </c>
     </row>
     <row r="20">
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>139.8584236265056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.814881206317</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.492880535499097</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>28.09309322362427</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>23.93099889297633</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>58.99264249617151</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>27.94407814005706</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>50.96659166316005</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,10 +26079,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>27.94407814005717</v>
       </c>
       <c r="V46" t="n">
-        <v>210.2559240429614</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983652</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773395</v>
@@ -26472,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,16 +26496,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631188</v>
+        <v>-384076.6264631191</v>
       </c>
       <c r="C6" t="n">
         <v>205891.2527514256</v>
@@ -26530,40 +26530,40 @@
         <v>205891.2527514255</v>
       </c>
       <c r="E6" t="n">
-        <v>-204871.0185047033</v>
+        <v>-203993.8863709536</v>
       </c>
       <c r="F6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="G6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="H6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="I6" t="n">
-        <v>320289.0179721932</v>
+        <v>321166.1501059422</v>
       </c>
       <c r="J6" t="n">
-        <v>143865.7987796004</v>
+        <v>144742.9309133494</v>
       </c>
       <c r="K6" t="n">
-        <v>320289.0179721932</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="L6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="M6" t="n">
-        <v>185488.0027383559</v>
+        <v>186365.1348721054</v>
       </c>
       <c r="N6" t="n">
-        <v>320289.0179721932</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="O6" t="n">
-        <v>320289.0179721929</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="P6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059426</v>
       </c>
     </row>
   </sheetData>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.03118778159273</v>
+        <v>168.6245956761328</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>204.718544817895</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>101.7932824303249</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>325.968418948403</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>142.1718954035983</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>173.0827370134423</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>19.88405377167465</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28790,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
     </row>
     <row r="20">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>429.2814066296106</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>336.4270607962786</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
